--- a/medicine/Pharmacie/Vetoquinol/Vetoquinol.xlsx
+++ b/medicine/Pharmacie/Vetoquinol/Vetoquinol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vetoquinol est un laboratoire pharmaceutique vétérinaire, à destination des animaux de production et de compagnie.
@@ -512,12 +524,14 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vetoquinol[3] développe et commercialise des médicaments vétérinaires et des produits non médicamenteux à destination des animaux de production (bovins, porcs) et des animaux de compagnie (chiens, chats)[R 1]. Vetoquinol est présent dans quatre segments stratégiques : antiparasitaires, mobilité, dermatologie et vaches laitières. Vetoquinol est impliqué dans les solutions nutritionnelles proposées pour les chevaux, avec la gamme Equistro. 
-Ce groupe familial, basé à Magny-Vernois, dans la Haute-Saône est le 8e laboratoire mondial et réalise plus de 80 % de son chiffre d’affaires à l’international[4]. Le groupe distribue aujourd’hui ses produits dans une centaine de pays (Europe, Amériques, Asie/Pacifique), en s’appuyant sur présence ciblée dans 24 pays les plus importants de la santé animale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vetoquinol développe et commercialise des médicaments vétérinaires et des produits non médicamenteux à destination des animaux de production (bovins, porcs) et des animaux de compagnie (chiens, chats)[R 1]. Vetoquinol est présent dans quatre segments stratégiques : antiparasitaires, mobilité, dermatologie et vaches laitières. Vetoquinol est impliqué dans les solutions nutritionnelles proposées pour les chevaux, avec la gamme Equistro. 
+Ce groupe familial, basé à Magny-Vernois, dans la Haute-Saône est le 8e laboratoire mondial et réalise plus de 80 % de son chiffre d’affaires à l’international. Le groupe distribue aujourd’hui ses produits dans une centaine de pays (Europe, Amériques, Asie/Pacifique), en s’appuyant sur présence ciblée dans 24 pays les plus importants de la santé animale.
 En 2019, le groupe possède sept sites industriels : deux en France, deux au Brésil, un au Canada, un en Italie et un en Pologne, pour une production annuelle de 10 000 tonnes de produits[R 2].
-C'est la seconde entreprise du département de la Haute-Saône[5].
+C'est la seconde entreprise du département de la Haute-Saône.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Laboratoires Biochimiques de l'Est sont créés en 1933 par Joseph Frechin à Lure (Haute-Saône), avec la mise au point d'un premier produit vétérinaire, le vétoquinol, un antiseptique basé sur l'Oxyquinoléine. L'entreprise est spécialisée au départ dans la pharmacie humaine. En 1962, Vétoquinol S.A. est créée, dédiée exclusivement à la santé animale, le siège et l'usine sont implantés à Magny-Vernois[R 3].
 En 2006, Vétoquinol est introduit sur Euronext Paris.
@@ -579,9 +595,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 24 avril 2022[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 24 avril 2022 :
 </t>
         </is>
       </c>
